--- a/20_Introduction to Data Analytics in Medicine/20_2_files/clinical.xlsx
+++ b/20_Introduction to Data Analytics in Medicine/20_2_files/clinical.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demin\Private\Projects\GIT\GB_DataScience-in-Med\20_Introduction to Data Analytics in Medicine\20_2_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC88F3C-35C8-4CD3-84C2-0C0B16ECA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D91D7C-5FFF-4B94-AD6A-609BA26B24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">w!$A$1:$FC$107</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2061,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FC107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18514,8 +18517,8 @@
       <c r="D35" t="s">
         <v>274</v>
       </c>
-      <c r="E35" t="s">
-        <v>282</v>
+      <c r="E35" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="F35" t="s">
         <v>282</v>
@@ -53469,6 +53472,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FC107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>